--- a/RedRunner_Jump.xlsx
+++ b/RedRunner_Jump.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK 2020/CS395/ML_Runner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F751D2E6-C6A7-4125-BC08-23D68B74B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C79F30CD-86FF-4B60-8FDA-7F5412022FF0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -411,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,10 +449,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +471,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -621,280 +626,280 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10000000000000142</c:v>
+                  <c:v>0.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20000000000000284</c:v>
+                  <c:v>0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999716</c:v>
+                  <c:v>0.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39999999999999858</c:v>
+                  <c:v>0.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60000000000000142</c:v>
+                  <c:v>0.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70000000000000284</c:v>
+                  <c:v>0.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999716</c:v>
+                  <c:v>0.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999858</c:v>
+                  <c:v>0.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000014</c:v>
+                  <c:v>1.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2000000000000028</c:v>
+                  <c:v>1.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999972</c:v>
+                  <c:v>1.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999986</c:v>
+                  <c:v>1.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000014</c:v>
+                  <c:v>1.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000028</c:v>
+                  <c:v>1.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999972</c:v>
+                  <c:v>1.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999986</c:v>
+                  <c:v>1.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000014</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000028</c:v>
+                  <c:v>2.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999972</c:v>
+                  <c:v>2.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6000000000000014</c:v>
+                  <c:v>2.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7000000000000028</c:v>
+                  <c:v>2.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7999999999999972</c:v>
+                  <c:v>2.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8999999999999986</c:v>
+                  <c:v>2.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2000000000000028</c:v>
+                  <c:v>3.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2999999999999972</c:v>
+                  <c:v>3.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>3.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.6000000000000014</c:v>
+                  <c:v>3.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7000000000000028</c:v>
+                  <c:v>3.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7999999999999972</c:v>
+                  <c:v>3.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8999999999999986</c:v>
+                  <c:v>3.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1000000000000014</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2000000000000028</c:v>
+                  <c:v>4.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3999999999999986</c:v>
+                  <c:v>4.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6000000000000014</c:v>
+                  <c:v>4.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7000000000000028</c:v>
+                  <c:v>4.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7999999999999972</c:v>
+                  <c:v>4.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8999999999999986</c:v>
+                  <c:v>4.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1000000000000014</c:v>
+                  <c:v>5.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.2999999999999972</c:v>
+                  <c:v>5.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.3999999999999986</c:v>
+                  <c:v>5.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6000000000000014</c:v>
+                  <c:v>5.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.7000000000000028</c:v>
+                  <c:v>5.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.7999999999999972</c:v>
+                  <c:v>5.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.1000000000000014</c:v>
+                  <c:v>6.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>6.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.2999999999999972</c:v>
+                  <c:v>6.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.3999999999999986</c:v>
+                  <c:v>6.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.7000000000000028</c:v>
+                  <c:v>6.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.7999999999999972</c:v>
+                  <c:v>6.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.8999999999999986</c:v>
+                  <c:v>6.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1000000000000014</c:v>
+                  <c:v>7.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.2000000000000028</c:v>
+                  <c:v>7.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.2999999999999972</c:v>
+                  <c:v>7.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.3999999999999986</c:v>
+                  <c:v>7.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.6000000000000014</c:v>
+                  <c:v>7.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.7000000000000028</c:v>
+                  <c:v>7.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.7999999999999972</c:v>
+                  <c:v>7.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.8999999999999986</c:v>
+                  <c:v>7.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.1000000000000014</c:v>
+                  <c:v>8.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>8.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3999999999999986</c:v>
+                  <c:v>8.399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>8.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.7000000000000028</c:v>
+                  <c:v>8.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7999999999999972</c:v>
+                  <c:v>8.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8999999999999986</c:v>
+                  <c:v>8.899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.1000000000000014</c:v>
+                  <c:v>9.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.2999999999999972</c:v>
+                  <c:v>9.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3999999999999986</c:v>
+                  <c:v>9.399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.6000000000000014</c:v>
+                  <c:v>9.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.7000000000000028</c:v>
+                  <c:v>9.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7999999999999972</c:v>
+                  <c:v>9.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.8999999999999986</c:v>
+                  <c:v>9.899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.100000000000001</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,52 +911,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40000000000000036</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000005</c:v>
+                  <c:v>1.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2999999999999998</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4000000000000004</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6000000000000005</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.5</c:v>
@@ -963,13 +968,13 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1000000000000005</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3.2</c:v>
@@ -978,13 +983,13 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6000000000000005</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.7</c:v>
@@ -996,16 +1001,16 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9000000000000004</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.2</c:v>
@@ -1023,16 +1028,16 @@
                   <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.5</c:v>
@@ -1062,16 +1067,16 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>4.3</c:v>
@@ -1083,16 +1088,16 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.9000000000000004</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3.8</c:v>
@@ -1104,13 +1109,13 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.6000000000000005</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>3.3</c:v>
@@ -1119,73 +1124,73 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1000000000000005</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6000000000000005</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7999999999999998</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2999999999999998</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.30000000000000027</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10C8-4891-9BE8-33F9019B9B21}"/>
             </c:ext>
@@ -1199,15 +1204,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673693199"/>
-        <c:axId val="737264047"/>
+        <c:axId val="155251776"/>
+        <c:axId val="155254096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="673693199"/>
+        <c:axId val="155251776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11"/>
-          <c:min val="0"/>
+          <c:max val="11.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1262,16 +1267,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737264047"/>
+        <c:crossAx val="155254096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737264047"/>
+        <c:axId val="155254096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
+          <c:max val="5.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1326,7 +1331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673693199"/>
+        <c:crossAx val="155251776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1340,14 +1345,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1958,7 +1963,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,28 +2280,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69792CD9-CC18-4F52-A160-FBC5845AD460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>LEFT(D3,4)</f>
         <v>38.0</v>
@@ -2375,7 +2380,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A67" si="0">LEFT(D4,4)</f>
         <v>38.1</v>
@@ -2404,7 +2409,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.2</v>
@@ -2433,7 +2438,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.3</v>
@@ -2462,7 +2467,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.4</v>
@@ -2491,7 +2496,7 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.5</v>
@@ -2520,7 +2525,7 @@
         <v>0.90000000000000036</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.6</v>
@@ -2549,7 +2554,7 @@
         <v>1.1000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.7</v>
@@ -2578,7 +2583,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.8</v>
@@ -2607,7 +2612,7 @@
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.9</v>
@@ -2636,7 +2641,7 @@
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.0</v>
@@ -2665,7 +2670,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.1</v>
@@ -2694,7 +2699,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.2</v>
@@ -2723,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.3</v>
@@ -2752,7 +2757,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.4</v>
@@ -2781,7 +2786,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.5</v>
@@ -2810,7 +2815,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.6</v>
@@ -2839,7 +2844,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.7</v>
@@ -2868,7 +2873,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.8</v>
@@ -2897,7 +2902,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.9</v>
@@ -2926,7 +2931,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.0</v>
@@ -2955,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.1</v>
@@ -2984,7 +2989,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.2</v>
@@ -3013,7 +3018,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.3</v>
@@ -3042,7 +3047,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.5</v>
@@ -3071,7 +3076,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.6</v>
@@ -3100,7 +3105,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.7</v>
@@ -3129,7 +3134,7 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.8</v>
@@ -3158,7 +3163,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.9</v>
@@ -3187,7 +3192,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.0</v>
@@ -3216,7 +3221,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.1</v>
@@ -3245,7 +3250,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.2</v>
@@ -3274,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.3</v>
@@ -3303,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.4</v>
@@ -3332,7 +3337,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.5</v>
@@ -3361,7 +3366,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.6</v>
@@ -3390,7 +3395,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.7</v>
@@ -3419,7 +3424,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.8</v>
@@ -3448,7 +3453,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.9</v>
@@ -3477,7 +3482,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.0</v>
@@ -3506,7 +3511,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.1</v>
@@ -3535,7 +3540,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.2</v>
@@ -3564,7 +3569,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.4</v>
@@ -3593,7 +3598,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.5</v>
@@ -3622,7 +3627,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.6</v>
@@ -3651,7 +3656,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.7</v>
@@ -3680,7 +3685,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.8</v>
@@ -3709,7 +3714,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.9</v>
@@ -3738,7 +3743,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.0</v>
@@ -3767,7 +3772,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.1</v>
@@ -3796,7 +3801,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.3</v>
@@ -3825,7 +3830,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.4</v>
@@ -3854,7 +3859,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.5</v>
@@ -3883,7 +3888,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.6</v>
@@ -3912,7 +3917,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.7</v>
@@ -3941,7 +3946,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.8</v>
@@ -3970,7 +3975,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.0</v>
@@ -3999,7 +4004,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.1</v>
@@ -4028,7 +4033,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.2</v>
@@ -4057,7 +4062,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.3</v>
@@ -4086,7 +4091,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.4</v>
@@ -4115,7 +4120,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.7</v>
@@ -4144,7 +4149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.8</v>
@@ -4173,7 +4178,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.9</v>
@@ -4202,7 +4207,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>45.0</v>
@@ -4231,7 +4236,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" ref="A68:A94" si="6">LEFT(D68,4)</f>
         <v>45.1</v>
@@ -4260,7 +4265,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.2</v>
@@ -4289,7 +4294,7 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.3</v>
@@ -4318,7 +4323,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.4</v>
@@ -4347,7 +4352,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.6</v>
@@ -4376,7 +4381,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.7</v>
@@ -4405,7 +4410,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.8</v>
@@ -4434,7 +4439,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.9</v>
@@ -4463,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.0</v>
@@ -4492,7 +4497,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.1</v>
@@ -4521,7 +4526,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.2</v>
@@ -4550,7 +4555,7 @@
         <v>2.6000000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.4</v>
@@ -4579,7 +4584,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.5</v>
@@ -4608,7 +4613,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.6</v>
@@ -4637,7 +4642,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.7</v>
@@ -4666,7 +4671,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.8</v>
@@ -4695,7 +4700,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.9</v>
@@ -4724,7 +4729,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.0</v>
@@ -4753,7 +4758,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.1</v>
@@ -4782,7 +4787,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.3</v>
@@ -4811,7 +4816,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.4</v>
@@ -4840,7 +4845,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.5</v>
@@ -4869,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.6</v>
@@ -4898,7 +4903,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.7</v>
@@ -4927,7 +4932,7 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.8</v>
@@ -4956,7 +4961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.9</v>
@@ -4985,7 +4990,7 @@
         <v>0.30000000000000027</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>48.1</v>
@@ -5025,42 +5030,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C130713-1FA3-492F-BFA3-1FEA5D6B6BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>101</v>
       </c>
@@ -5098,112 +5103,176 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3">
-        <f>VALUE(LEFT(B20, 5))</f>
-        <v>43.67</v>
+        <f>VALUE(LEFT(B20, FIND(",",B20,1)-1))</f>
+        <v>43.67736</v>
+      </c>
+      <c r="C3">
+        <f>VALUE(MID(C20,FIND(",",C20)+1,256))</f>
+        <v>4.5222150000000001</v>
       </c>
       <c r="D3">
         <v>12.639889999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
-        <f t="shared" ref="B4:B18" si="0">VALUE(LEFT(B21, 5))</f>
-        <v>44.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B4:B18" si="0">VALUE(LEFT(B21, FIND(",",B21,1)-1))</f>
+        <v>44.160499999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C18" si="1">VALUE(MID(C21,FIND(",",C21)+1,256))</f>
+        <v>5.5702499999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>44.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44.643729999999998</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>6.4591260000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>45.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45.137819999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>7.2095669999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>45.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45.639029999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>7.814559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>46.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>46.149209999999997</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>8.2754549999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>46.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>46.688000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8.5992510000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>47.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>47.215150000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>8.761749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>47.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>47.742150000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>8.7777209999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>48.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48.28013</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>8.6488790000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>48.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48.845410000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>8.3617570000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>49.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>49.394329999999997</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>7.9404830000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>49.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>49.968899999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>7.354355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>50.53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>50.53622</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>6.6359589999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>51.13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51.13832</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5.7268619999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>51.71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51.71931</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.7126999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f>LEFT(B36, 7)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -5211,7 +5280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>109</v>
       </c>
@@ -5219,7 +5288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>110</v>
       </c>
@@ -5227,7 +5296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -5235,7 +5304,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -5243,7 +5312,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>113</v>
       </c>
@@ -5251,7 +5320,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>114</v>
       </c>
@@ -5259,7 +5328,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>115</v>
       </c>
@@ -5267,7 +5336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>116</v>
       </c>
@@ -5275,7 +5344,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -5283,7 +5352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>118</v>
       </c>
@@ -5291,7 +5360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>119</v>
       </c>
@@ -5299,7 +5368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>120</v>
       </c>
@@ -5307,7 +5376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>121</v>
       </c>
@@ -5315,7 +5384,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>122</v>
       </c>
@@ -5323,7 +5392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>123</v>
       </c>

--- a/RedRunner_Jump.xlsx
+++ b/RedRunner_Jump.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Documents\Unity\ML_Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F751D2E6-C6A7-4125-BC08-23D68B74B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301F3BE-E394-4C1E-80EA-4C3623D2302C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C79F30CD-86FF-4B60-8FDA-7F5412022FF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C79F30CD-86FF-4B60-8FDA-7F5412022FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>x</t>
   </si>
@@ -406,6 +407,27 @@
   </si>
   <si>
     <t>51.71931, 4.7127</t>
+  </si>
+  <si>
+    <t>RunDist</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>JumpDist</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Continuous Run</t>
+  </si>
+  <si>
+    <t>Dist</t>
   </si>
 </sst>
 </file>
@@ -444,10 +466,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,7 +1404,2392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance Run Before a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Jump vs Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17252165354330709"/>
+                  <c:y val="0.16162037037037033"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>19.352209999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6502530000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7477800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4441069999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1064189999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59282679999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30462270000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0446850000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.033058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.137321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66522979999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2589264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1525784</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36075210000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1410450000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1169949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3868870000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5599400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.282654</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0129739999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5726969999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9377170000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7946090000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1563530000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2339520000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6972769999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9113239999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6649929999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4552350000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.809437</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9474299999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.172161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.068695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2953260000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3531569999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4549789999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0593029999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.30749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7371599999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8906100000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6821059999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0878219999999992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7381740000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5288389999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.395379999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.216570000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.179489999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.795949999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.343360000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>6.6261239999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7859540000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.766788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6998009999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8092990000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6837420000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5267400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5249699999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5415089999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0256980000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4627460000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7956049999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.896055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89041950000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5694300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9134089999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9072459999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9703910000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9439190000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1918340000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0980639999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1781829999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2703800000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0566589999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4148129999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3216939999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4491059999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3433869999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3404749999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3568150000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2675910000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7527090000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3275829999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4080149999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5255130000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7201700000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8098850000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.74491</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7838760000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7007849999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.716024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6179119999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7651820000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0535569999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0385039999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6265989999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9943619999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8664310000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AE-4EA1-869E-1B4F9605B4AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="111554768"/>
+        <c:axId val="98743088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111554768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98743088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98743088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111554768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Jump Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9002187226596673E-2"/>
+                  <c:y val="0.23967847769028872"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>6.6261239999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7859540000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.766788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6998009999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8092990000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6837420000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5267400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5249699999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5415089999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0256980000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4627460000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7956049999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.896055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89041950000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5694300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9134089999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9072459999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9703910000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9439190000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1918340000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0980639999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1781829999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2703800000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0566589999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4148129999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3216939999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4491059999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3433869999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3404749999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3568150000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2675910000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7527090000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3275829999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4080149999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5255130000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7201700000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8098850000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.74491</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7838760000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7007849999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.716024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6179119999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7651820000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0535569999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0385039999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6265989999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9943619999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8664310000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>10.563279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0434699999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1140599999999949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0506400000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9050399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1095900000000043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3827599999999975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6299199999999985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1507199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7504200000000054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5645600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9112600000000022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.411760000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.995750000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8609699999999982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2802399999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1950900000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7873399999999933</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2978400000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7071600000000018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9241899999999958</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0912700000000015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7592600000000047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3669699999999949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0258099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.828400000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9785299999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7956299999999956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.2202500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9552599999999956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7697399999999988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.8213699999999946</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.2055399999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.9594900000000024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.080680000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.82029</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8391299999999973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5067000000000093</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5036300000000011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3433899999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.754400000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.2944999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.4782999999999902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1581200000000038</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1400899999999936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.2320399999999978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.073839999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.5237399999999965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6957-4682-86B3-4AD9E203E914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="193843232"/>
+        <c:axId val="1864055216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193843232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864055216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1864055216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jump Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193843232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Continuou</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>s Distance Ran vs Speed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11741972878390201"/>
+                  <c:y val="0.25497265966754157"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.1034470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.43127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.087230000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.595280000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.355829999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.485380000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.953370000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.546769999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.9777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.930820000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.687419999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.3367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.826859999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.755719999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118.0749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.04570000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161.7226</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.96430000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205.79499999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228.02189999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250.5333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>271.59030000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294.55950000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.40605</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.33286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.366570000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.842019999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.28613</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.761439999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.161990000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132.9308</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166.0694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>181.20509999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>198.13829999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>231.3879</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>264.62720000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$3:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.1552470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4380249999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3671740000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9834620000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3935560000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6433440000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7934959999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8815760000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9309550000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9605560000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5205909999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4213190000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2371230000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4760349999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7034540000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8368830000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6950319999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.7071380000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7192919999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8392669999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9163099999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.910952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9472880000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8292479999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8796470000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9350449999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6778240000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1966800000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5946870000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7641760000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8779229999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9321909999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9667999999999992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.8266639999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.8630110000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9103110000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8932120000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8606259999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5CC-4FB3-B3DF-8298C62AE428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="193829232"/>
+        <c:axId val="2104737408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193829232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance Ran</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104737408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2104737408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193829232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1938,6 +4345,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1971,6 +5926,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6803</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F3419-3875-4395-BC5B-F6ACCAA23344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>605517</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278945</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E3DD4C-E43D-4825-85FD-258E556AF405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>605518</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5445F70-A52F-4449-85F6-C64FD6536608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2291,10 +6359,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5028,7 +9096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C130713-1FA3-492F-BFA3-1FEA5D6B6BB8}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5038,27 +9106,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5340,4 +9408,1443 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B8034-3889-453E-BF31-5381C529D558}">
+  <dimension ref="B1:W60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2">
+        <v>5.1034470000000001</v>
+      </c>
+      <c r="W2">
+        <v>5.1552470000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>45.061340000000001</v>
+      </c>
+      <c r="G3">
+        <v>55.62462</v>
+      </c>
+      <c r="I3">
+        <v>5.1034470000000001</v>
+      </c>
+      <c r="J3">
+        <v>5.1552470000000001</v>
+      </c>
+      <c r="V3">
+        <v>15.43127</v>
+      </c>
+      <c r="W3">
+        <v>6.4380249999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>19.352209999999999</v>
+      </c>
+      <c r="C4">
+        <v>6.6261239999999999</v>
+      </c>
+      <c r="D4">
+        <f>G3-F3</f>
+        <v>10.563279999999999</v>
+      </c>
+      <c r="I4">
+        <v>15.43127</v>
+      </c>
+      <c r="J4">
+        <v>6.4380249999999997</v>
+      </c>
+      <c r="V4">
+        <v>27.087230000000002</v>
+      </c>
+      <c r="W4">
+        <v>7.3671740000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.6502530000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D4:D60" si="0">G5-F5</f>
+        <v>8.0434699999999992</v>
+      </c>
+      <c r="F5">
+        <v>40.129440000000002</v>
+      </c>
+      <c r="G5">
+        <v>48.172910000000002</v>
+      </c>
+      <c r="I5">
+        <v>27.087230000000002</v>
+      </c>
+      <c r="J5">
+        <v>7.3671740000000003</v>
+      </c>
+      <c r="V5">
+        <v>39.595280000000002</v>
+      </c>
+      <c r="W5">
+        <v>7.9834620000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2.7477800000000001</v>
+      </c>
+      <c r="C6">
+        <v>4.7859540000000003</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.1140599999999949</v>
+      </c>
+      <c r="F6">
+        <v>40.332790000000003</v>
+      </c>
+      <c r="G6">
+        <v>48.446849999999998</v>
+      </c>
+      <c r="I6">
+        <v>39.595280000000002</v>
+      </c>
+      <c r="J6">
+        <v>7.9834620000000003</v>
+      </c>
+      <c r="V6">
+        <v>53.355829999999997</v>
+      </c>
+      <c r="W6">
+        <v>8.3935560000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.4441069999999998</v>
+      </c>
+      <c r="C7">
+        <v>4.766788</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8.0506400000000014</v>
+      </c>
+      <c r="F7">
+        <v>39.853819999999999</v>
+      </c>
+      <c r="G7">
+        <v>47.90446</v>
+      </c>
+      <c r="I7">
+        <v>53.355829999999997</v>
+      </c>
+      <c r="J7">
+        <v>8.3935560000000002</v>
+      </c>
+      <c r="V7">
+        <v>67.485380000000006</v>
+      </c>
+      <c r="W7">
+        <v>8.6433440000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2.1064189999999998</v>
+      </c>
+      <c r="C8">
+        <v>4.6998009999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.9050399999999996</v>
+      </c>
+      <c r="F8">
+        <v>39.649039999999999</v>
+      </c>
+      <c r="G8">
+        <v>47.554079999999999</v>
+      </c>
+      <c r="I8">
+        <v>67.485380000000006</v>
+      </c>
+      <c r="J8">
+        <v>8.6433440000000008</v>
+      </c>
+      <c r="V8">
+        <v>81.953370000000007</v>
+      </c>
+      <c r="W8">
+        <v>8.7934959999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.59282679999999999</v>
+      </c>
+      <c r="C9">
+        <v>3.8092990000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7.1095900000000043</v>
+      </c>
+      <c r="F9">
+        <v>38.332239999999999</v>
+      </c>
+      <c r="G9">
+        <v>45.441830000000003</v>
+      </c>
+      <c r="I9">
+        <v>81.953370000000007</v>
+      </c>
+      <c r="J9">
+        <v>8.7934959999999993</v>
+      </c>
+      <c r="V9">
+        <v>96.546769999999995</v>
+      </c>
+      <c r="W9">
+        <v>8.8815760000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.30462270000000002</v>
+      </c>
+      <c r="C10">
+        <v>2.6837420000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7.3827599999999975</v>
+      </c>
+      <c r="F10">
+        <v>37.667520000000003</v>
+      </c>
+      <c r="G10">
+        <v>45.050280000000001</v>
+      </c>
+      <c r="I10">
+        <v>96.546769999999995</v>
+      </c>
+      <c r="J10">
+        <v>8.8815760000000008</v>
+      </c>
+      <c r="V10">
+        <v>110.56399999999999</v>
+      </c>
+      <c r="W10">
+        <v>8.9309550000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.0446850000000001</v>
+      </c>
+      <c r="C11">
+        <v>4.5267400000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7.6299199999999985</v>
+      </c>
+      <c r="F11">
+        <v>38.50976</v>
+      </c>
+      <c r="G11">
+        <v>46.139679999999998</v>
+      </c>
+      <c r="I11">
+        <v>110.56399999999999</v>
+      </c>
+      <c r="J11">
+        <v>8.9309550000000009</v>
+      </c>
+      <c r="V11">
+        <v>124.9777</v>
+      </c>
+      <c r="W11">
+        <v>8.9605560000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.033058</v>
+      </c>
+      <c r="C12">
+        <v>4.5249699999999997</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7.1507199999999997</v>
+      </c>
+      <c r="F12">
+        <v>38.775669999999998</v>
+      </c>
+      <c r="G12">
+        <v>45.926389999999998</v>
+      </c>
+      <c r="I12">
+        <v>124.9777</v>
+      </c>
+      <c r="J12">
+        <v>8.9605560000000004</v>
+      </c>
+      <c r="V12">
+        <v>18.930820000000001</v>
+      </c>
+      <c r="W12">
+        <v>6.5205909999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.137321</v>
+      </c>
+      <c r="C13">
+        <v>4.5415089999999996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7.7504200000000054</v>
+      </c>
+      <c r="F13">
+        <v>38.487209999999997</v>
+      </c>
+      <c r="G13">
+        <v>46.237630000000003</v>
+      </c>
+      <c r="I13">
+        <v>18.930820000000001</v>
+      </c>
+      <c r="J13">
+        <v>6.5205909999999996</v>
+      </c>
+      <c r="V13">
+        <v>30.687419999999999</v>
+      </c>
+      <c r="W13">
+        <v>7.4213190000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.66522979999999998</v>
+      </c>
+      <c r="C14">
+        <v>4.0256980000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7.5645600000000002</v>
+      </c>
+      <c r="F14">
+        <v>37.893079999999998</v>
+      </c>
+      <c r="G14">
+        <v>45.457639999999998</v>
+      </c>
+      <c r="I14">
+        <v>30.687419999999999</v>
+      </c>
+      <c r="J14">
+        <v>7.4213190000000004</v>
+      </c>
+      <c r="V14">
+        <v>52.3367</v>
+      </c>
+      <c r="W14">
+        <v>8.2371230000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.2589264</v>
+      </c>
+      <c r="C15">
+        <v>2.4627460000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6.9984999999999999</v>
+      </c>
+      <c r="F15">
+        <v>33.913350000000001</v>
+      </c>
+      <c r="G15">
+        <v>40.911850000000001</v>
+      </c>
+      <c r="I15">
+        <v>52.3367</v>
+      </c>
+      <c r="J15">
+        <v>8.2371230000000004</v>
+      </c>
+      <c r="V15">
+        <v>73.826859999999996</v>
+      </c>
+      <c r="W15">
+        <v>8.4760349999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.1525784</v>
+      </c>
+      <c r="C16">
+        <v>1.7956049999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.9112600000000022</v>
+      </c>
+      <c r="F16">
+        <v>28.062670000000001</v>
+      </c>
+      <c r="G16">
+        <v>34.973930000000003</v>
+      </c>
+      <c r="I16">
+        <v>73.826859999999996</v>
+      </c>
+      <c r="J16">
+        <v>8.4760349999999995</v>
+      </c>
+      <c r="V16">
+        <v>95.755719999999997</v>
+      </c>
+      <c r="W16">
+        <v>8.7034540000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.36075210000000002</v>
+      </c>
+      <c r="C17">
+        <v>2.896055</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>7.411760000000001</v>
+      </c>
+      <c r="F17">
+        <v>28.679549999999999</v>
+      </c>
+      <c r="G17">
+        <v>36.09131</v>
+      </c>
+      <c r="I17">
+        <v>95.755719999999997</v>
+      </c>
+      <c r="J17">
+        <v>8.7034540000000007</v>
+      </c>
+      <c r="V17">
+        <v>118.0749</v>
+      </c>
+      <c r="W17">
+        <v>8.8368830000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4.1410450000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.89041950000000003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6.995750000000001</v>
+      </c>
+      <c r="F18">
+        <v>28.631509999999999</v>
+      </c>
+      <c r="G18">
+        <v>35.62726</v>
+      </c>
+      <c r="I18">
+        <v>118.0749</v>
+      </c>
+      <c r="J18">
+        <v>8.8368830000000003</v>
+      </c>
+      <c r="V18">
+        <v>140.04570000000001</v>
+      </c>
+      <c r="W18">
+        <v>8.6950319999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.1169949</v>
+      </c>
+      <c r="C19">
+        <v>1.5694300000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.8609699999999982</v>
+      </c>
+      <c r="F19">
+        <v>29.150310000000001</v>
+      </c>
+      <c r="G19">
+        <v>36.011279999999999</v>
+      </c>
+      <c r="I19">
+        <v>140.04570000000001</v>
+      </c>
+      <c r="J19">
+        <v>8.6950319999999994</v>
+      </c>
+      <c r="V19">
+        <v>161.7226</v>
+      </c>
+      <c r="W19">
+        <v>8.7071380000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3.3868870000000002</v>
+      </c>
+      <c r="C20">
+        <v>4.9134089999999997</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>8.2802399999999992</v>
+      </c>
+      <c r="F20">
+        <v>41.045439999999999</v>
+      </c>
+      <c r="G20">
+        <v>49.325679999999998</v>
+      </c>
+      <c r="I20">
+        <v>161.7226</v>
+      </c>
+      <c r="J20">
+        <v>8.7071380000000005</v>
+      </c>
+      <c r="V20">
+        <v>183.96430000000001</v>
+      </c>
+      <c r="W20">
+        <v>8.7192919999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3.5599400000000001</v>
+      </c>
+      <c r="C21">
+        <v>4.9072459999999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8.1950900000000004</v>
+      </c>
+      <c r="F21">
+        <v>40.886710000000001</v>
+      </c>
+      <c r="G21">
+        <v>49.081800000000001</v>
+      </c>
+      <c r="I21">
+        <v>183.96430000000001</v>
+      </c>
+      <c r="J21">
+        <v>8.7192919999999994</v>
+      </c>
+      <c r="V21">
+        <v>205.79499999999999</v>
+      </c>
+      <c r="W21">
+        <v>8.8392669999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4.282654</v>
+      </c>
+      <c r="C22">
+        <v>4.9703910000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7.7873399999999933</v>
+      </c>
+      <c r="F22">
+        <v>42.225320000000004</v>
+      </c>
+      <c r="G22">
+        <v>50.012659999999997</v>
+      </c>
+      <c r="I22">
+        <v>205.79499999999999</v>
+      </c>
+      <c r="J22">
+        <v>8.8392669999999995</v>
+      </c>
+      <c r="V22">
+        <v>228.02189999999999</v>
+      </c>
+      <c r="W22">
+        <v>8.9163099999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4.0129739999999998</v>
+      </c>
+      <c r="C23">
+        <v>4.9439190000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>8.2978400000000008</v>
+      </c>
+      <c r="F23">
+        <v>41.9236</v>
+      </c>
+      <c r="G23">
+        <v>50.221440000000001</v>
+      </c>
+      <c r="I23">
+        <v>228.02189999999999</v>
+      </c>
+      <c r="J23">
+        <v>8.9163099999999993</v>
+      </c>
+      <c r="V23">
+        <v>250.5333</v>
+      </c>
+      <c r="W23">
+        <v>8.910952</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5.5726969999999998</v>
+      </c>
+      <c r="C24">
+        <v>5.1918340000000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>8.7071600000000018</v>
+      </c>
+      <c r="F24">
+        <v>42.933610000000002</v>
+      </c>
+      <c r="G24">
+        <v>51.640770000000003</v>
+      </c>
+      <c r="I24">
+        <v>250.5333</v>
+      </c>
+      <c r="J24">
+        <v>8.910952</v>
+      </c>
+      <c r="V24">
+        <v>271.59030000000001</v>
+      </c>
+      <c r="W24">
+        <v>8.9472880000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4.9377170000000001</v>
+      </c>
+      <c r="C25">
+        <v>5.0980639999999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7.9241899999999958</v>
+      </c>
+      <c r="F25">
+        <v>42.700290000000003</v>
+      </c>
+      <c r="G25">
+        <v>50.624479999999998</v>
+      </c>
+      <c r="I25">
+        <v>271.59030000000001</v>
+      </c>
+      <c r="J25">
+        <v>8.9472880000000004</v>
+      </c>
+      <c r="V25">
+        <v>294.55950000000001</v>
+      </c>
+      <c r="W25">
+        <v>8.8292479999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>5.7946090000000003</v>
+      </c>
+      <c r="C26">
+        <v>5.1781829999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>8.0912700000000015</v>
+      </c>
+      <c r="F26">
+        <v>43.723500000000001</v>
+      </c>
+      <c r="G26">
+        <v>51.814770000000003</v>
+      </c>
+      <c r="I26">
+        <v>294.55950000000001</v>
+      </c>
+      <c r="J26">
+        <v>8.8292479999999998</v>
+      </c>
+      <c r="V26">
+        <v>11.40605</v>
+      </c>
+      <c r="W26">
+        <v>5.8796470000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>6.1563530000000002</v>
+      </c>
+      <c r="C27">
+        <v>5.2703800000000003</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8.7592600000000047</v>
+      </c>
+      <c r="F27">
+        <v>44.000979999999998</v>
+      </c>
+      <c r="G27">
+        <v>52.760240000000003</v>
+      </c>
+      <c r="I27">
+        <v>11.40605</v>
+      </c>
+      <c r="J27">
+        <v>5.8796470000000003</v>
+      </c>
+      <c r="V27">
+        <v>23.33286</v>
+      </c>
+      <c r="W27">
+        <v>6.9350449999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5.2339520000000004</v>
+      </c>
+      <c r="C28">
+        <v>5.0566589999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>8.3669699999999949</v>
+      </c>
+      <c r="F28">
+        <v>35.184800000000003</v>
+      </c>
+      <c r="G28">
+        <v>43.551769999999998</v>
+      </c>
+      <c r="I28">
+        <v>23.33286</v>
+      </c>
+      <c r="J28">
+        <v>6.9350449999999997</v>
+      </c>
+      <c r="V28">
+        <v>35.366570000000003</v>
+      </c>
+      <c r="W28">
+        <v>7.6778240000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6.6972769999999997</v>
+      </c>
+      <c r="C29">
+        <v>5.4148129999999997</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>9.0258099999999999</v>
+      </c>
+      <c r="F29">
+        <v>44.371079999999999</v>
+      </c>
+      <c r="G29">
+        <v>53.396889999999999</v>
+      </c>
+      <c r="I29">
+        <v>35.366570000000003</v>
+      </c>
+      <c r="J29">
+        <v>7.6778240000000002</v>
+      </c>
+      <c r="V29">
+        <v>48.842019999999998</v>
+      </c>
+      <c r="W29">
+        <v>8.1966800000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6.9113239999999996</v>
+      </c>
+      <c r="C30">
+        <v>5.3216939999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>8.828400000000002</v>
+      </c>
+      <c r="F30">
+        <v>44.587519999999998</v>
+      </c>
+      <c r="G30">
+        <v>53.41592</v>
+      </c>
+      <c r="I30">
+        <v>48.842019999999998</v>
+      </c>
+      <c r="J30">
+        <v>8.1966800000000006</v>
+      </c>
+      <c r="V30">
+        <v>67.28613</v>
+      </c>
+      <c r="W30">
+        <v>8.5946870000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7.6649929999999999</v>
+      </c>
+      <c r="C31">
+        <v>5.4491059999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>8.9785299999999992</v>
+      </c>
+      <c r="F31">
+        <v>45.054929999999999</v>
+      </c>
+      <c r="G31">
+        <v>54.033459999999998</v>
+      </c>
+      <c r="I31">
+        <v>67.28613</v>
+      </c>
+      <c r="J31">
+        <v>8.5946870000000004</v>
+      </c>
+      <c r="V31">
+        <v>81.761439999999993</v>
+      </c>
+      <c r="W31">
+        <v>8.7641760000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6.4552350000000001</v>
+      </c>
+      <c r="C32">
+        <v>5.3433869999999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>8.7956299999999956</v>
+      </c>
+      <c r="F32">
+        <v>43.911650000000002</v>
+      </c>
+      <c r="G32">
+        <v>52.707279999999997</v>
+      </c>
+      <c r="I32">
+        <v>81.761439999999993</v>
+      </c>
+      <c r="J32">
+        <v>8.7641760000000009</v>
+      </c>
+      <c r="V32">
+        <v>99.161990000000003</v>
+      </c>
+      <c r="W32">
+        <v>8.8779229999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6.809437</v>
+      </c>
+      <c r="C33">
+        <v>5.3404749999999996</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>8.2202500000000001</v>
+      </c>
+      <c r="F33">
+        <v>44.456040000000002</v>
+      </c>
+      <c r="G33">
+        <v>52.676290000000002</v>
+      </c>
+      <c r="I33">
+        <v>99.161990000000003</v>
+      </c>
+      <c r="J33">
+        <v>8.8779229999999991</v>
+      </c>
+      <c r="V33">
+        <v>114.51</v>
+      </c>
+      <c r="W33">
+        <v>8.9321909999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>6.9474299999999998</v>
+      </c>
+      <c r="C34">
+        <v>5.3568150000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>8.9552599999999956</v>
+      </c>
+      <c r="F34">
+        <v>44.150300000000001</v>
+      </c>
+      <c r="G34">
+        <v>53.105559999999997</v>
+      </c>
+      <c r="I34">
+        <v>114.51</v>
+      </c>
+      <c r="J34">
+        <v>8.9321909999999995</v>
+      </c>
+      <c r="V34">
+        <v>132.9308</v>
+      </c>
+      <c r="W34">
+        <v>8.9667999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>7.172161</v>
+      </c>
+      <c r="C35">
+        <v>5.2675910000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>8.7697399999999988</v>
+      </c>
+      <c r="F35">
+        <v>44.596730000000001</v>
+      </c>
+      <c r="G35">
+        <v>53.36647</v>
+      </c>
+      <c r="I35">
+        <v>132.9308</v>
+      </c>
+      <c r="J35">
+        <v>8.9667999999999992</v>
+      </c>
+      <c r="V35">
+        <v>166.0694</v>
+      </c>
+      <c r="W35">
+        <v>8.8266639999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>9.068695</v>
+      </c>
+      <c r="C36">
+        <v>5.7527090000000003</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>8.8213699999999946</v>
+      </c>
+      <c r="F36">
+        <v>55.796010000000003</v>
+      </c>
+      <c r="G36">
+        <v>64.617379999999997</v>
+      </c>
+      <c r="I36">
+        <v>166.0694</v>
+      </c>
+      <c r="J36">
+        <v>8.8266639999999992</v>
+      </c>
+      <c r="V36">
+        <v>181.20509999999999</v>
+      </c>
+      <c r="W36">
+        <v>8.8630110000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>7.2953260000000002</v>
+      </c>
+      <c r="C37">
+        <v>5.3275829999999997</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>8.2055399999999992</v>
+      </c>
+      <c r="F37">
+        <v>53.517899999999997</v>
+      </c>
+      <c r="G37">
+        <v>61.723439999999997</v>
+      </c>
+      <c r="I37">
+        <v>181.20509999999999</v>
+      </c>
+      <c r="J37">
+        <v>8.8630110000000002</v>
+      </c>
+      <c r="V37">
+        <v>198.13829999999999</v>
+      </c>
+      <c r="W37">
+        <v>8.9103110000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>8.3531569999999995</v>
+      </c>
+      <c r="C38">
+        <v>5.4080149999999998</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>8.9594900000000024</v>
+      </c>
+      <c r="F38">
+        <v>54.33193</v>
+      </c>
+      <c r="G38">
+        <v>63.291420000000002</v>
+      </c>
+      <c r="I38">
+        <v>198.13829999999999</v>
+      </c>
+      <c r="J38">
+        <v>8.9103110000000001</v>
+      </c>
+      <c r="V38">
+        <v>231.3879</v>
+      </c>
+      <c r="W38">
+        <v>8.8932120000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8.4549789999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.5255130000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>9.080680000000001</v>
+      </c>
+      <c r="F39">
+        <v>54.590350000000001</v>
+      </c>
+      <c r="G39">
+        <v>63.671030000000002</v>
+      </c>
+      <c r="I39">
+        <v>231.3879</v>
+      </c>
+      <c r="J39">
+        <v>8.8932120000000001</v>
+      </c>
+      <c r="V39">
+        <v>264.62720000000002</v>
+      </c>
+      <c r="W39">
+        <v>8.8606259999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>9.0593029999999999</v>
+      </c>
+      <c r="C40">
+        <v>5.7201700000000004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>8.82029</v>
+      </c>
+      <c r="F40">
+        <v>66.528790000000001</v>
+      </c>
+      <c r="G40">
+        <v>75.349080000000001</v>
+      </c>
+      <c r="I40">
+        <v>264.62720000000002</v>
+      </c>
+      <c r="J40">
+        <v>8.8606259999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>10.30749</v>
+      </c>
+      <c r="C41">
+        <v>5.8098850000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>8.8391299999999973</v>
+      </c>
+      <c r="F41">
+        <v>67.619219999999999</v>
+      </c>
+      <c r="G41">
+        <v>76.458349999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9.7371599999999994</v>
+      </c>
+      <c r="C42">
+        <v>5.74491</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>9.5067000000000093</v>
+      </c>
+      <c r="F42">
+        <v>77.819559999999996</v>
+      </c>
+      <c r="G42">
+        <v>87.326260000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>9.8906100000000006</v>
+      </c>
+      <c r="C43">
+        <v>5.7838760000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>9.5036300000000011</v>
+      </c>
+      <c r="F43">
+        <v>88.367459999999994</v>
+      </c>
+      <c r="G43">
+        <v>97.871089999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8.6821059999999992</v>
+      </c>
+      <c r="C44">
+        <v>5.7007849999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>9.3433899999999994</v>
+      </c>
+      <c r="F44">
+        <v>98.758309999999994</v>
+      </c>
+      <c r="G44">
+        <v>108.10169999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9.0878219999999992</v>
+      </c>
+      <c r="C45">
+        <v>5.716024</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>8.754400000000004</v>
+      </c>
+      <c r="F45">
+        <v>111.333</v>
+      </c>
+      <c r="G45">
+        <v>120.0874</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>8.7381740000000008</v>
+      </c>
+      <c r="C46">
+        <v>5.6179119999999996</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>9.2944999999999993</v>
+      </c>
+      <c r="F46">
+        <v>121.5659</v>
+      </c>
+      <c r="G46">
+        <v>130.8604</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>9.5288389999999996</v>
+      </c>
+      <c r="C47">
+        <v>5.7651820000000003</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>9.4782999999999902</v>
+      </c>
+      <c r="F47">
+        <v>144.2664</v>
+      </c>
+      <c r="G47">
+        <v>153.74469999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>12.395379999999999</v>
+      </c>
+      <c r="C48">
+        <v>6.0535569999999996</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>9.1581200000000038</v>
+      </c>
+      <c r="F48">
+        <v>40.853479999999998</v>
+      </c>
+      <c r="G48">
+        <v>50.011600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>12.216570000000001</v>
+      </c>
+      <c r="C49">
+        <v>6.0385039999999996</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>9.1400899999999936</v>
+      </c>
+      <c r="F49">
+        <v>40.717350000000003</v>
+      </c>
+      <c r="G49">
+        <v>49.857439999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>10.179489999999999</v>
+      </c>
+      <c r="C50">
+        <v>5.6265989999999997</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>9.2320399999999978</v>
+      </c>
+      <c r="F50">
+        <v>38.589640000000003</v>
+      </c>
+      <c r="G50">
+        <v>47.821680000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10.795949999999999</v>
+      </c>
+      <c r="C51">
+        <v>5.9943619999999997</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>9.073839999999997</v>
+      </c>
+      <c r="F51">
+        <v>39.485210000000002</v>
+      </c>
+      <c r="G51">
+        <v>48.559049999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>11.343360000000001</v>
+      </c>
+      <c r="C52">
+        <v>5.8664310000000004</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>9.5237399999999965</v>
+      </c>
+      <c r="F52">
+        <v>39.73169</v>
+      </c>
+      <c r="G52">
+        <v>49.255429999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RedRunner_Jump.xlsx
+++ b/RedRunner_Jump.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Probst\Documents\Unity\ML_Runner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK 2020/CS395/ML_Runner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301F3BE-E394-4C1E-80EA-4C3623D2302C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C79F30CD-86FF-4B60-8FDA-7F5412022FF0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -433,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +493,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -643,280 +648,280 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10000000000000142</c:v>
+                  <c:v>0.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20000000000000284</c:v>
+                  <c:v>0.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999716</c:v>
+                  <c:v>0.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39999999999999858</c:v>
+                  <c:v>0.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60000000000000142</c:v>
+                  <c:v>0.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70000000000000284</c:v>
+                  <c:v>0.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999716</c:v>
+                  <c:v>0.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999858</c:v>
+                  <c:v>0.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000014</c:v>
+                  <c:v>1.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2000000000000028</c:v>
+                  <c:v>1.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2999999999999972</c:v>
+                  <c:v>1.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3999999999999986</c:v>
+                  <c:v>1.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000014</c:v>
+                  <c:v>1.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000028</c:v>
+                  <c:v>1.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7999999999999972</c:v>
+                  <c:v>1.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8999999999999986</c:v>
+                  <c:v>1.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000014</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000028</c:v>
+                  <c:v>2.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999972</c:v>
+                  <c:v>2.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6000000000000014</c:v>
+                  <c:v>2.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7000000000000028</c:v>
+                  <c:v>2.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7999999999999972</c:v>
+                  <c:v>2.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8999999999999986</c:v>
+                  <c:v>2.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2000000000000028</c:v>
+                  <c:v>3.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2999999999999972</c:v>
+                  <c:v>3.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>3.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.6000000000000014</c:v>
+                  <c:v>3.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7000000000000028</c:v>
+                  <c:v>3.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7999999999999972</c:v>
+                  <c:v>3.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8999999999999986</c:v>
+                  <c:v>3.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1000000000000014</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2000000000000028</c:v>
+                  <c:v>4.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3999999999999986</c:v>
+                  <c:v>4.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6000000000000014</c:v>
+                  <c:v>4.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7000000000000028</c:v>
+                  <c:v>4.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7999999999999972</c:v>
+                  <c:v>4.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8999999999999986</c:v>
+                  <c:v>4.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1000000000000014</c:v>
+                  <c:v>5.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.2999999999999972</c:v>
+                  <c:v>5.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.3999999999999986</c:v>
+                  <c:v>5.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6000000000000014</c:v>
+                  <c:v>5.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.7000000000000028</c:v>
+                  <c:v>5.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.7999999999999972</c:v>
+                  <c:v>5.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.1000000000000014</c:v>
+                  <c:v>6.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.2000000000000028</c:v>
+                  <c:v>6.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.2999999999999972</c:v>
+                  <c:v>6.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.3999999999999986</c:v>
+                  <c:v>6.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.7000000000000028</c:v>
+                  <c:v>6.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.7999999999999972</c:v>
+                  <c:v>6.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.8999999999999986</c:v>
+                  <c:v>6.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1000000000000014</c:v>
+                  <c:v>7.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.2000000000000028</c:v>
+                  <c:v>7.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.2999999999999972</c:v>
+                  <c:v>7.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.3999999999999986</c:v>
+                  <c:v>7.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.6000000000000014</c:v>
+                  <c:v>7.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.7000000000000028</c:v>
+                  <c:v>7.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.7999999999999972</c:v>
+                  <c:v>7.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.8999999999999986</c:v>
+                  <c:v>7.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.1000000000000014</c:v>
+                  <c:v>8.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.2000000000000028</c:v>
+                  <c:v>8.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3999999999999986</c:v>
+                  <c:v>8.399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6000000000000014</c:v>
+                  <c:v>8.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.7000000000000028</c:v>
+                  <c:v>8.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7999999999999972</c:v>
+                  <c:v>8.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8999999999999986</c:v>
+                  <c:v>8.899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.1000000000000014</c:v>
+                  <c:v>9.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.2999999999999972</c:v>
+                  <c:v>9.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3999999999999986</c:v>
+                  <c:v>9.399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.6000000000000014</c:v>
+                  <c:v>9.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.7000000000000028</c:v>
+                  <c:v>9.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7999999999999972</c:v>
+                  <c:v>9.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.8999999999999986</c:v>
+                  <c:v>9.899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.100000000000001</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,52 +933,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40000000000000036</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000005</c:v>
+                  <c:v>1.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2999999999999998</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4000000000000004</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6000000000000005</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.5</c:v>
@@ -985,13 +990,13 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1000000000000005</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3.2</c:v>
@@ -1000,13 +1005,13 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6000000000000005</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.7</c:v>
@@ -1018,16 +1023,16 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9000000000000004</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.2</c:v>
@@ -1045,16 +1050,16 @@
                   <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4.5</c:v>
@@ -1084,16 +1089,16 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>4.3</c:v>
@@ -1105,16 +1110,16 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1000000000000005</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.9000000000000004</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3.8</c:v>
@@ -1126,13 +1131,13 @@
                   <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.6000000000000005</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>3.3</c:v>
@@ -1141,73 +1146,73 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1000000000000005</c:v>
+                  <c:v>3.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6000000000000005</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7999999999999998</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2999999999999998</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.70000000000000018</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.30000000000000027</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.10000000000000009</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10C8-4891-9BE8-33F9019B9B21}"/>
             </c:ext>
@@ -1221,15 +1226,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673693199"/>
-        <c:axId val="737264047"/>
+        <c:axId val="-1319067456"/>
+        <c:axId val="-1319987248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="673693199"/>
+        <c:axId val="-1319067456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11"/>
-          <c:min val="0"/>
+          <c:max val="11.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1284,16 +1289,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737264047"/>
+        <c:crossAx val="-1319987248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737264047"/>
+        <c:axId val="-1319987248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
+          <c:max val="5.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1348,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673693199"/>
+        <c:crossAx val="-1319067456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1362,14 +1367,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1405,7 +1410,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1438,17 +1443,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
+              </a:rPr>
               <a:t>Distance Run Before a</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
+              </a:rPr>
               <a:t> Jump vs Speed</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Baloo" charset="0"/>
+              <a:ea typeface="Baloo" charset="0"/>
+              <a:cs typeface="Baloo" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1525,10 +1543,59 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17252165354330709"/>
-                  <c:y val="0.16162037037037033"/>
+                  <c:x val="0.173078489392648"/>
+                  <c:y val="0.17216814159292"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                        <a:latin typeface="Baloo" charset="0"/>
+                        <a:ea typeface="Baloo" charset="0"/>
+                        <a:cs typeface="Baloo" charset="0"/>
+                      </a:rPr>
+                      <a:t>y = 0.851ln(x) + 3.8352</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                        <a:latin typeface="Baloo" charset="0"/>
+                        <a:ea typeface="Baloo" charset="0"/>
+                        <a:cs typeface="Baloo" charset="0"/>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
+                        <a:latin typeface="Baloo" charset="0"/>
+                        <a:ea typeface="Baloo" charset="0"/>
+                        <a:cs typeface="Baloo" charset="0"/>
+                      </a:rPr>
+                      <a:t>R² = 0.96065</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200">
+                      <a:latin typeface="Baloo" charset="0"/>
+                      <a:ea typeface="Baloo" charset="0"/>
+                      <a:cs typeface="Baloo" charset="0"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1542,7 +1609,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1566,28 +1633,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>19.352209999999999</c:v>
+                  <c:v>19.35221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6502530000000002</c:v>
+                  <c:v>2.650253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7477800000000001</c:v>
+                  <c:v>2.74778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4441069999999998</c:v>
+                  <c:v>2.444107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1064189999999998</c:v>
+                  <c:v>2.106419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59282679999999999</c:v>
+                  <c:v>0.5928268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30462270000000002</c:v>
+                  <c:v>0.3046227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0446850000000001</c:v>
+                  <c:v>1.044685</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.033058</c:v>
@@ -1596,7 +1663,7 @@
                   <c:v>1.137321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66522979999999998</c:v>
+                  <c:v>0.6652298</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2589264</c:v>
@@ -1605,58 +1672,58 @@
                   <c:v>0.1525784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36075210000000002</c:v>
+                  <c:v>0.3607521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1410450000000001E-2</c:v>
+                  <c:v>0.04141045</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.1169949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3868870000000002</c:v>
+                  <c:v>3.386887</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5599400000000001</c:v>
+                  <c:v>3.55994</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4.282654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0129739999999998</c:v>
+                  <c:v>4.012974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5726969999999998</c:v>
+                  <c:v>5.572697</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9377170000000001</c:v>
+                  <c:v>4.937717</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7946090000000003</c:v>
+                  <c:v>5.794609</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.1563530000000002</c:v>
+                  <c:v>6.156353</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2339520000000004</c:v>
+                  <c:v>5.233952</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6972769999999997</c:v>
+                  <c:v>6.697277</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9113239999999996</c:v>
+                  <c:v>6.911324</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6649929999999999</c:v>
+                  <c:v>7.664993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.4552350000000001</c:v>
+                  <c:v>6.455235</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6.809437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9474299999999998</c:v>
+                  <c:v>6.94743</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7.172161</c:v>
@@ -1665,52 +1732,52 @@
                   <c:v>9.068695</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.2953260000000002</c:v>
+                  <c:v>7.295326</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3531569999999995</c:v>
+                  <c:v>8.353157</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.4549789999999998</c:v>
+                  <c:v>8.454979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.0593029999999999</c:v>
+                  <c:v>9.059303</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>10.30749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.7371599999999994</c:v>
+                  <c:v>9.73716</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.8906100000000006</c:v>
+                  <c:v>9.89061</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.6821059999999992</c:v>
+                  <c:v>8.682106</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0878219999999992</c:v>
+                  <c:v>9.087822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.7381740000000008</c:v>
+                  <c:v>8.738174000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.5288389999999996</c:v>
+                  <c:v>9.528839</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.395379999999999</c:v>
+                  <c:v>12.39538</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.216570000000001</c:v>
+                  <c:v>12.21657</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10.179489999999999</c:v>
+                  <c:v>10.17949</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.795949999999999</c:v>
+                  <c:v>10.79595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.343360000000001</c:v>
+                  <c:v>11.34336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,157 +1789,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>6.6261239999999999</c:v>
+                  <c:v>6.626124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7750000000000004</c:v>
+                  <c:v>4.775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7859540000000003</c:v>
+                  <c:v>4.785954</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.766788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6998009999999999</c:v>
+                  <c:v>4.699801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8092990000000002</c:v>
+                  <c:v>3.809299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6837420000000001</c:v>
+                  <c:v>2.683742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5267400000000002</c:v>
+                  <c:v>4.52674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5249699999999997</c:v>
+                  <c:v>4.52497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5415089999999996</c:v>
+                  <c:v>4.541509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0256980000000002</c:v>
+                  <c:v>4.025698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4627460000000001</c:v>
+                  <c:v>2.462746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7956049999999999</c:v>
+                  <c:v>1.795605</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.896055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89041950000000003</c:v>
+                  <c:v>0.8904195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5694300000000001</c:v>
+                  <c:v>1.56943</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9134089999999997</c:v>
+                  <c:v>4.913409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9072459999999998</c:v>
+                  <c:v>4.907246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9703910000000002</c:v>
+                  <c:v>4.970391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9439190000000002</c:v>
+                  <c:v>4.943919</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1918340000000001</c:v>
+                  <c:v>5.191834</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0980639999999999</c:v>
+                  <c:v>5.098064</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1781829999999998</c:v>
+                  <c:v>5.178183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2703800000000003</c:v>
+                  <c:v>5.27038</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0566589999999998</c:v>
+                  <c:v>5.056659</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4148129999999997</c:v>
+                  <c:v>5.414813</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3216939999999999</c:v>
+                  <c:v>5.321694</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4491059999999996</c:v>
+                  <c:v>5.449106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3433869999999999</c:v>
+                  <c:v>5.343387</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3404749999999996</c:v>
+                  <c:v>5.340475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3568150000000001</c:v>
+                  <c:v>5.356815</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2675910000000004</c:v>
+                  <c:v>5.267591</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.7527090000000003</c:v>
+                  <c:v>5.752709</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3275829999999997</c:v>
+                  <c:v>5.327583</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4080149999999998</c:v>
+                  <c:v>5.408015</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5255130000000001</c:v>
+                  <c:v>5.525513</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7201700000000004</c:v>
+                  <c:v>5.72017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8098850000000004</c:v>
+                  <c:v>5.809885</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.74491</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7838760000000002</c:v>
+                  <c:v>5.783876</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7007849999999998</c:v>
+                  <c:v>5.700785</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5.716024</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.6179119999999996</c:v>
+                  <c:v>5.617911999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7651820000000003</c:v>
+                  <c:v>5.765182</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0535569999999996</c:v>
+                  <c:v>6.053557</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.0385039999999996</c:v>
+                  <c:v>6.038504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.6265989999999997</c:v>
+                  <c:v>5.626599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.9943619999999997</c:v>
+                  <c:v>5.994362</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8664310000000004</c:v>
+                  <c:v>5.866431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51AE-4EA1-869E-1B4F9605B4AA}"/>
             </c:ext>
@@ -1886,11 +1953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111554768"/>
-        <c:axId val="98743088"/>
+        <c:axId val="-1319049216"/>
+        <c:axId val="-1319045456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111554768"/>
+        <c:axId val="-1319049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,22 +1991,31 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
+                  </a:rPr>
                   <a:t>Run</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
+                  </a:rPr>
                   <a:t> Distance</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1960,9 +2036,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Baloo" charset="0"/>
+                  <a:ea typeface="Baloo" charset="0"/>
+                  <a:cs typeface="Baloo" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1998,20 +2074,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98743088"/>
+        <c:crossAx val="-1319045456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98743088"/>
+        <c:axId val="-1319045456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,12 +2127,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
+                  </a:rPr>
                   <a:t>Speed</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2115,15 +2196,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111554768"/>
+        <c:crossAx val="-1319049216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2137,14 +2218,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2180,7 +2261,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2207,22 +2288,19 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speed vs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Jump Distance</a:t>
+              <a:t>Speed vs Jump Distance</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2243,9 +2321,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Baloo" charset="0"/>
+              <a:ea typeface="Baloo" charset="0"/>
+              <a:cs typeface="Baloo" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2313,8 +2391,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9002187226596673E-2"/>
-                  <c:y val="0.23967847769028872"/>
+                  <c:x val="0.0390021872265967"/>
+                  <c:y val="0.239678477690289"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2330,16 +2408,16 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:latin typeface="Baloo" charset="0"/>
+                      <a:ea typeface="Baloo" charset="0"/>
+                      <a:cs typeface="Baloo" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
@@ -2354,151 +2432,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>6.6261239999999999</c:v>
+                  <c:v>6.626124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7750000000000004</c:v>
+                  <c:v>4.775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7859540000000003</c:v>
+                  <c:v>4.785954</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.766788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6998009999999999</c:v>
+                  <c:v>4.699801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8092990000000002</c:v>
+                  <c:v>3.809299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6837420000000001</c:v>
+                  <c:v>2.683742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5267400000000002</c:v>
+                  <c:v>4.52674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5249699999999997</c:v>
+                  <c:v>4.52497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5415089999999996</c:v>
+                  <c:v>4.541509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0256980000000002</c:v>
+                  <c:v>4.025698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4627460000000001</c:v>
+                  <c:v>2.462746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7956049999999999</c:v>
+                  <c:v>1.795605</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.896055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89041950000000003</c:v>
+                  <c:v>0.8904195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5694300000000001</c:v>
+                  <c:v>1.56943</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9134089999999997</c:v>
+                  <c:v>4.913409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9072459999999998</c:v>
+                  <c:v>4.907246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9703910000000002</c:v>
+                  <c:v>4.970391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9439190000000002</c:v>
+                  <c:v>4.943919</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1918340000000001</c:v>
+                  <c:v>5.191834</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0980639999999999</c:v>
+                  <c:v>5.098064</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1781829999999998</c:v>
+                  <c:v>5.178183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2703800000000003</c:v>
+                  <c:v>5.27038</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0566589999999998</c:v>
+                  <c:v>5.056659</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4148129999999997</c:v>
+                  <c:v>5.414813</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3216939999999999</c:v>
+                  <c:v>5.321694</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4491059999999996</c:v>
+                  <c:v>5.449106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3433869999999999</c:v>
+                  <c:v>5.343387</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3404749999999996</c:v>
+                  <c:v>5.340475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3568150000000001</c:v>
+                  <c:v>5.356815</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2675910000000004</c:v>
+                  <c:v>5.267591</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.7527090000000003</c:v>
+                  <c:v>5.752709</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3275829999999997</c:v>
+                  <c:v>5.327583</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4080149999999998</c:v>
+                  <c:v>5.408015</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5255130000000001</c:v>
+                  <c:v>5.525513</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7201700000000004</c:v>
+                  <c:v>5.72017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8098850000000004</c:v>
+                  <c:v>5.809885</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.74491</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7838760000000002</c:v>
+                  <c:v>5.783876</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7007849999999998</c:v>
+                  <c:v>5.700785</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5.716024</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.6179119999999996</c:v>
+                  <c:v>5.617911999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7651820000000003</c:v>
+                  <c:v>5.765182</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0535569999999996</c:v>
+                  <c:v>6.053557</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.0385039999999996</c:v>
+                  <c:v>6.038504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.6265989999999997</c:v>
+                  <c:v>5.626599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.9943619999999997</c:v>
+                  <c:v>5.994362</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8664310000000004</c:v>
+                  <c:v>5.866431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,157 +2588,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>10.563279999999999</c:v>
+                  <c:v>10.56328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0434699999999992</c:v>
+                  <c:v>8.04347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1140599999999949</c:v>
+                  <c:v>8.114059999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0506400000000014</c:v>
+                  <c:v>8.05064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9050399999999996</c:v>
+                  <c:v>7.90504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1095900000000043</c:v>
+                  <c:v>7.109590000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3827599999999975</c:v>
+                  <c:v>7.382759999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6299199999999985</c:v>
+                  <c:v>7.629919999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1507199999999997</c:v>
+                  <c:v>7.15072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7504200000000054</c:v>
+                  <c:v>7.750420000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5645600000000002</c:v>
+                  <c:v>7.56456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9984999999999999</c:v>
+                  <c:v>6.9985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9112600000000022</c:v>
+                  <c:v>6.911260000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.411760000000001</c:v>
+                  <c:v>7.41176</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.995750000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8609699999999982</c:v>
+                  <c:v>6.860969999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2802399999999992</c:v>
+                  <c:v>8.28024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1950900000000004</c:v>
+                  <c:v>8.19509</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.7873399999999933</c:v>
+                  <c:v>7.787339999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2978400000000008</c:v>
+                  <c:v>8.297840000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7071600000000018</c:v>
+                  <c:v>8.707160000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9241899999999958</c:v>
+                  <c:v>7.924189999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0912700000000015</c:v>
+                  <c:v>8.091270000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.7592600000000047</c:v>
+                  <c:v>8.759260000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.3669699999999949</c:v>
+                  <c:v>8.366969999999994</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0258099999999999</c:v>
+                  <c:v>9.02581</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.828400000000002</c:v>
+                  <c:v>8.828400000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.9785299999999992</c:v>
+                  <c:v>8.97853</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7956299999999956</c:v>
+                  <c:v>8.795629999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2202500000000001</c:v>
+                  <c:v>8.22025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.9552599999999956</c:v>
+                  <c:v>8.955259999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.7697399999999988</c:v>
+                  <c:v>8.769739999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.8213699999999946</c:v>
+                  <c:v>8.821369999999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2055399999999992</c:v>
+                  <c:v>8.20554</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.9594900000000024</c:v>
+                  <c:v>8.95949</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.080680000000001</c:v>
+                  <c:v>9.08068</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8.82029</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.8391299999999973</c:v>
+                  <c:v>8.839129999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5067000000000093</c:v>
+                  <c:v>9.50670000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5036300000000011</c:v>
+                  <c:v>9.50363</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3433899999999994</c:v>
+                  <c:v>9.34339</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.754400000000004</c:v>
+                  <c:v>8.754400000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.2944999999999993</c:v>
+                  <c:v>9.2945</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.4782999999999902</c:v>
+                  <c:v>9.47829999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.1581200000000038</c:v>
+                  <c:v>9.158120000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1400899999999936</c:v>
+                  <c:v>9.140089999999993</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.2320399999999978</c:v>
+                  <c:v>9.232039999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9.073839999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.5237399999999965</c:v>
+                  <c:v>9.523739999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6957-4682-86B3-4AD9E203E914}"/>
             </c:ext>
@@ -2674,11 +2752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193843232"/>
-        <c:axId val="1864055216"/>
+        <c:axId val="-1319012624"/>
+        <c:axId val="-1319008864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193843232"/>
+        <c:axId val="-1319012624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,9 +2790,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2724,6 +2802,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2744,9 +2823,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Baloo" charset="0"/>
+                  <a:ea typeface="Baloo" charset="0"/>
+                  <a:cs typeface="Baloo" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2782,20 +2861,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1864055216"/>
+        <c:crossAx val="-1319008864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1864055216"/>
+        <c:axId val="-1319008864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,9 +2908,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2841,6 +2920,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2861,9 +2941,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Baloo" charset="0"/>
+                  <a:ea typeface="Baloo" charset="0"/>
+                  <a:cs typeface="Baloo" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2899,15 +2979,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193843232"/>
+        <c:crossAx val="-1319012624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,14 +3001,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2950,7 +3030,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Baloo" charset="0"/>
+          <a:ea typeface="Baloo" charset="0"/>
+          <a:cs typeface="Baloo" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2964,7 +3048,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2991,23 +3075,19 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Continuou</a:t>
+              <a:t>Continuous Distance Ran vs Speed</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>s Distance Ran vs Speed</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3028,9 +3108,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Baloo" charset="0"/>
+              <a:ea typeface="Baloo" charset="0"/>
+              <a:cs typeface="Baloo" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3044,8 +3124,281 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.103447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.43127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.08723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.59528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.35583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.48538000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.95337000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.54677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.9777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.93082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.68742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.3367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.82686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.75572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118.0749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140.0457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>161.7226</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.9643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205.795</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228.0219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250.5333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>271.5903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294.5595</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.40605</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.33286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.36657</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.84202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.28613</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.76144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.16199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132.9308</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166.0694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>181.2051</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>198.1383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>231.3879</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>264.6272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$3:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.155247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.438025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.367174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.983462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.393556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.643344000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.793496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.881576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.930955000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.960556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.520591</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.421319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.237123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.476035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.703454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.836883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.695032</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.707138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.719292</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.839267</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.91631</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.910952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.947288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.829248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.879647</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.935045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.677824</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.19668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.594687</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.764176000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.877923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.932191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9668</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.826664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.863011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.910311</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.893212</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.860626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -3084,8 +3437,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11741972878390201"/>
-                  <c:y val="0.25497265966754157"/>
+                  <c:x val="0.117419728783902"/>
+                  <c:y val="0.254972659667542"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3101,16 +3454,16 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:latin typeface="Baloo" charset="0"/>
+                      <a:ea typeface="Baloo" charset="0"/>
+                      <a:cs typeface="Baloo" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
@@ -3125,76 +3478,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>5.1034470000000001</c:v>
+                  <c:v>5.103447</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.43127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.087230000000002</c:v>
+                  <c:v>27.08723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.595280000000002</c:v>
+                  <c:v>39.59528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.355829999999997</c:v>
+                  <c:v>53.35583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.485380000000006</c:v>
+                  <c:v>67.48538000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.953370000000007</c:v>
+                  <c:v>81.95337000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.546769999999995</c:v>
+                  <c:v>96.54677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110.56399999999999</c:v>
+                  <c:v>110.564</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>124.9777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.930820000000001</c:v>
+                  <c:v>18.93082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.687419999999999</c:v>
+                  <c:v>30.68742</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>52.3367</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.826859999999996</c:v>
+                  <c:v>73.82686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.755719999999997</c:v>
+                  <c:v>95.75572</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>118.0749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>140.04570000000001</c:v>
+                  <c:v>140.0457</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>161.7226</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183.96430000000001</c:v>
+                  <c:v>183.9643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>205.79499999999999</c:v>
+                  <c:v>205.795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>228.02189999999999</c:v>
+                  <c:v>228.0219</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>250.5333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>271.59030000000001</c:v>
+                  <c:v>271.5903</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294.55950000000001</c:v>
+                  <c:v>294.5595</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>11.40605</c:v>
@@ -3203,19 +3556,19 @@
                   <c:v>23.33286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.366570000000003</c:v>
+                  <c:v>35.36657</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.842019999999998</c:v>
+                  <c:v>48.84202</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>67.28613</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.761439999999993</c:v>
+                  <c:v>81.76144</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.161990000000003</c:v>
+                  <c:v>99.16199</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>114.51</c:v>
@@ -3227,16 +3580,16 @@
                   <c:v>166.0694</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.20509999999999</c:v>
+                  <c:v>181.2051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>198.13829999999999</c:v>
+                  <c:v>198.1383</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>231.3879</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>264.62720000000002</c:v>
+                  <c:v>264.6272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,124 +3601,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>5.1552470000000001</c:v>
+                  <c:v>5.155247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4380249999999997</c:v>
+                  <c:v>6.438025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3671740000000003</c:v>
+                  <c:v>7.367174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9834620000000003</c:v>
+                  <c:v>7.983462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3935560000000002</c:v>
+                  <c:v>8.393556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6433440000000008</c:v>
+                  <c:v>8.643344000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7934959999999993</c:v>
+                  <c:v>8.793496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8815760000000008</c:v>
+                  <c:v>8.881576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9309550000000009</c:v>
+                  <c:v>8.930955000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9605560000000004</c:v>
+                  <c:v>8.960556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5205909999999996</c:v>
+                  <c:v>6.520591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4213190000000004</c:v>
+                  <c:v>7.421319</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2371230000000004</c:v>
+                  <c:v>8.237123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4760349999999995</c:v>
+                  <c:v>8.476035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7034540000000007</c:v>
+                  <c:v>8.703454</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8368830000000003</c:v>
+                  <c:v>8.836883</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6950319999999994</c:v>
+                  <c:v>8.695032</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7071380000000005</c:v>
+                  <c:v>8.707138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7192919999999994</c:v>
+                  <c:v>8.719292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8392669999999995</c:v>
+                  <c:v>8.839267</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9163099999999993</c:v>
+                  <c:v>8.91631</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.910952</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9472880000000004</c:v>
+                  <c:v>8.947288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8292479999999998</c:v>
+                  <c:v>8.829248</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.8796470000000003</c:v>
+                  <c:v>5.879647</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9350449999999997</c:v>
+                  <c:v>6.935045</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.6778240000000002</c:v>
+                  <c:v>7.677824</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1966800000000006</c:v>
+                  <c:v>8.19668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.5946870000000004</c:v>
+                  <c:v>8.594687</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.7641760000000009</c:v>
+                  <c:v>8.764176000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.8779229999999991</c:v>
+                  <c:v>8.877923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.9321909999999995</c:v>
+                  <c:v>8.932191</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.9667999999999992</c:v>
+                  <c:v>8.9668</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8266639999999992</c:v>
+                  <c:v>8.826664</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.8630110000000002</c:v>
+                  <c:v>8.863011</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.9103110000000001</c:v>
+                  <c:v>8.910311</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8932120000000001</c:v>
+                  <c:v>8.893212</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.8606259999999999</c:v>
+                  <c:v>8.860626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E5CC-4FB3-B3DF-8298C62AE428}"/>
             </c:ext>
@@ -3379,11 +3732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193829232"/>
-        <c:axId val="2104737408"/>
+        <c:axId val="-1306249200"/>
+        <c:axId val="-1272330160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193829232"/>
+        <c:axId val="-1306249200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,9 +3770,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3429,6 +3782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3449,9 +3803,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Baloo" charset="0"/>
+                  <a:ea typeface="Baloo" charset="0"/>
+                  <a:cs typeface="Baloo" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3487,20 +3841,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104737408"/>
+        <c:crossAx val="-1272330160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104737408"/>
+        <c:axId val="-1272330160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -3535,9 +3889,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Baloo" charset="0"/>
+                    <a:ea typeface="Baloo" charset="0"/>
+                    <a:cs typeface="Baloo" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3547,6 +3901,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3567,9 +3922,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Baloo" charset="0"/>
+                  <a:ea typeface="Baloo" charset="0"/>
+                  <a:cs typeface="Baloo" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3605,15 +3960,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Baloo" charset="0"/>
+                <a:ea typeface="Baloo" charset="0"/>
+                <a:cs typeface="Baloo" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193829232"/>
+        <c:crossAx val="-1306249200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3627,14 +3982,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3656,7 +4011,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Baloo" charset="0"/>
+          <a:ea typeface="Baloo" charset="0"/>
+          <a:cs typeface="Baloo" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5913,7 +6272,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5954,7 +6313,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F3419-3875-4395-BC5B-F6ACCAA23344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A88F3419-3875-4395-BC5B-F6ACCAA23344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5990,7 +6349,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E3DD4C-E43D-4825-85FD-258E556AF405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E3DD4C-E43D-4825-85FD-258E556AF405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6026,7 +6385,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5445F70-A52F-4449-85F6-C64FD6536608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5445F70-A52F-4449-85F6-C64FD6536608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6343,28 +6702,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69792CD9-CC18-4F52-A160-FBC5845AD460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6396,7 +6755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>LEFT(D3,4)</f>
         <v>38.0</v>
@@ -6443,7 +6802,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A67" si="0">LEFT(D4,4)</f>
         <v>38.1</v>
@@ -6472,7 +6831,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.2</v>
@@ -6501,7 +6860,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.3</v>
@@ -6530,7 +6889,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.4</v>
@@ -6559,7 +6918,7 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.5</v>
@@ -6588,7 +6947,7 @@
         <v>0.90000000000000036</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.6</v>
@@ -6617,7 +6976,7 @@
         <v>1.1000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.7</v>
@@ -6646,7 +7005,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.8</v>
@@ -6675,7 +7034,7 @@
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>38.9</v>
@@ -6704,7 +7063,7 @@
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.0</v>
@@ -6733,7 +7092,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.1</v>
@@ -6762,7 +7121,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.2</v>
@@ -6791,7 +7150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.3</v>
@@ -6820,7 +7179,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.4</v>
@@ -6849,7 +7208,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.5</v>
@@ -6878,7 +7237,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.6</v>
@@ -6907,7 +7266,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.7</v>
@@ -6936,7 +7295,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.8</v>
@@ -6965,7 +7324,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>39.9</v>
@@ -6994,7 +7353,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.0</v>
@@ -7023,7 +7382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.1</v>
@@ -7052,7 +7411,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.2</v>
@@ -7081,7 +7440,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.3</v>
@@ -7110,7 +7469,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.5</v>
@@ -7139,7 +7498,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.6</v>
@@ -7168,7 +7527,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.7</v>
@@ -7197,7 +7556,7 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.8</v>
@@ -7226,7 +7585,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>40.9</v>
@@ -7255,7 +7614,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.0</v>
@@ -7284,7 +7643,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.1</v>
@@ -7313,7 +7672,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.2</v>
@@ -7342,7 +7701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.3</v>
@@ -7371,7 +7730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.4</v>
@@ -7400,7 +7759,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.5</v>
@@ -7429,7 +7788,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.6</v>
@@ -7458,7 +7817,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.7</v>
@@ -7487,7 +7846,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.8</v>
@@ -7516,7 +7875,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>41.9</v>
@@ -7545,7 +7904,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.0</v>
@@ -7574,7 +7933,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.1</v>
@@ -7603,7 +7962,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.2</v>
@@ -7632,7 +7991,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.4</v>
@@ -7661,7 +8020,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.5</v>
@@ -7690,7 +8049,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.6</v>
@@ -7719,7 +8078,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.7</v>
@@ -7748,7 +8107,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.8</v>
@@ -7777,7 +8136,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>42.9</v>
@@ -7806,7 +8165,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.0</v>
@@ -7835,7 +8194,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.1</v>
@@ -7864,7 +8223,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.3</v>
@@ -7893,7 +8252,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.4</v>
@@ -7922,7 +8281,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.5</v>
@@ -7951,7 +8310,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.6</v>
@@ -7980,7 +8339,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.7</v>
@@ -8009,7 +8368,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>43.8</v>
@@ -8038,7 +8397,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.0</v>
@@ -8067,7 +8426,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.1</v>
@@ -8096,7 +8455,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.2</v>
@@ -8125,7 +8484,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.3</v>
@@ -8154,7 +8513,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.4</v>
@@ -8183,7 +8542,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.7</v>
@@ -8212,7 +8571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.8</v>
@@ -8241,7 +8600,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>44.9</v>
@@ -8270,7 +8629,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>45.0</v>
@@ -8299,7 +8658,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" ref="A68:A94" si="6">LEFT(D68,4)</f>
         <v>45.1</v>
@@ -8328,7 +8687,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.2</v>
@@ -8357,7 +8716,7 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.3</v>
@@ -8386,7 +8745,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.4</v>
@@ -8415,7 +8774,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.6</v>
@@ -8444,7 +8803,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.7</v>
@@ -8473,7 +8832,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.8</v>
@@ -8502,7 +8861,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>45.9</v>
@@ -8531,7 +8890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.0</v>
@@ -8560,7 +8919,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.1</v>
@@ -8589,7 +8948,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.2</v>
@@ -8618,7 +8977,7 @@
         <v>2.6000000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.4</v>
@@ -8647,7 +9006,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.5</v>
@@ -8676,7 +9035,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.6</v>
@@ -8705,7 +9064,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.7</v>
@@ -8734,7 +9093,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.8</v>
@@ -8763,7 +9122,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>46.9</v>
@@ -8792,7 +9151,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.0</v>
@@ -8821,7 +9180,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.1</v>
@@ -8850,7 +9209,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.3</v>
@@ -8879,7 +9238,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.4</v>
@@ -8908,7 +9267,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.5</v>
@@ -8937,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.6</v>
@@ -8966,7 +9325,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.7</v>
@@ -8995,7 +9354,7 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.8</v>
@@ -9024,7 +9383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>47.9</v>
@@ -9053,7 +9412,7 @@
         <v>0.30000000000000027</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>48.1</v>
@@ -9093,19 +9452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C130713-1FA3-492F-BFA3-1FEA5D6B6BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>103</v>
@@ -9128,7 +9487,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>101</v>
       </c>
@@ -9166,7 +9525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>VALUE(LEFT(B20, 5))</f>
         <v>43.67</v>
@@ -9175,103 +9534,103 @@
         <v>12.639889999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <f t="shared" ref="B4:B18" si="0">VALUE(LEFT(B21, 5))</f>
         <v>44.16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>44.64</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>45.13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>45.63</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>46.14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>46.68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>47.21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>47.74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>48.28</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>48.84</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>49.39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>49.96</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>50.53</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>51.13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>51.71</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f>LEFT(B36, 7)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -9279,7 +9638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>109</v>
       </c>
@@ -9287,7 +9646,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>110</v>
       </c>
@@ -9295,7 +9654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -9303,7 +9662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -9311,7 +9670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>113</v>
       </c>
@@ -9319,7 +9678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>114</v>
       </c>
@@ -9327,7 +9686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>115</v>
       </c>
@@ -9335,7 +9694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>116</v>
       </c>
@@ -9343,7 +9702,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -9351,7 +9710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>118</v>
       </c>
@@ -9359,7 +9718,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>119</v>
       </c>
@@ -9367,7 +9726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>120</v>
       </c>
@@ -9375,7 +9734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>121</v>
       </c>
@@ -9383,7 +9742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>122</v>
       </c>
@@ -9391,7 +9750,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>123</v>
       </c>
@@ -9411,25 +9770,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B8034-3889-453E-BF31-5381C529D558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I1" s="3" t="s">
         <v>129</v>
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>124</v>
       </c>
@@ -9458,7 +9817,7 @@
         <v>5.1552470000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F3">
         <v>45.061340000000001</v>
       </c>
@@ -9478,7 +9837,7 @@
         <v>6.4380249999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>19.352209999999999</v>
       </c>
@@ -9502,7 +9861,7 @@
         <v>7.3671740000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2.6502530000000002</v>
       </c>
@@ -9510,7 +9869,7 @@
         <v>4.7750000000000004</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D60" si="0">G5-F5</f>
+        <f t="shared" ref="D5:D60" si="0">G5-F5</f>
         <v>8.0434699999999992</v>
       </c>
       <c r="F5">
@@ -9532,7 +9891,7 @@
         <v>7.9834620000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2.7477800000000001</v>
       </c>
@@ -9562,7 +9921,7 @@
         <v>8.3935560000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2.4441069999999998</v>
       </c>
@@ -9592,7 +9951,7 @@
         <v>8.6433440000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2.1064189999999998</v>
       </c>
@@ -9622,7 +9981,7 @@
         <v>8.7934959999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.59282679999999999</v>
       </c>
@@ -9652,7 +10011,7 @@
         <v>8.8815760000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.30462270000000002</v>
       </c>
@@ -9682,7 +10041,7 @@
         <v>8.9309550000000009</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.0446850000000001</v>
       </c>
@@ -9712,7 +10071,7 @@
         <v>8.9605560000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.033058</v>
       </c>
@@ -9742,7 +10101,7 @@
         <v>6.5205909999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1.137321</v>
       </c>
@@ -9772,7 +10131,7 @@
         <v>7.4213190000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.66522979999999998</v>
       </c>
@@ -9802,7 +10161,7 @@
         <v>8.2371230000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.2589264</v>
       </c>
@@ -9832,7 +10191,7 @@
         <v>8.4760349999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.1525784</v>
       </c>
@@ -9862,7 +10221,7 @@
         <v>8.7034540000000007</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.36075210000000002</v>
       </c>
@@ -9892,7 +10251,7 @@
         <v>8.8368830000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>4.1410450000000001E-2</v>
       </c>
@@ -9922,7 +10281,7 @@
         <v>8.6950319999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.1169949</v>
       </c>
@@ -9952,7 +10311,7 @@
         <v>8.7071380000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3.3868870000000002</v>
       </c>
@@ -9982,7 +10341,7 @@
         <v>8.7192919999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3.5599400000000001</v>
       </c>
@@ -10012,7 +10371,7 @@
         <v>8.8392669999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4.282654</v>
       </c>
@@ -10042,7 +10401,7 @@
         <v>8.9163099999999993</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4.0129739999999998</v>
       </c>
@@ -10072,7 +10431,7 @@
         <v>8.910952</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5.5726969999999998</v>
       </c>
@@ -10102,7 +10461,7 @@
         <v>8.9472880000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>4.9377170000000001</v>
       </c>
@@ -10132,7 +10491,7 @@
         <v>8.8292479999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>5.7946090000000003</v>
       </c>
@@ -10162,7 +10521,7 @@
         <v>5.8796470000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>6.1563530000000002</v>
       </c>
@@ -10192,7 +10551,7 @@
         <v>6.9350449999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>5.2339520000000004</v>
       </c>
@@ -10222,7 +10581,7 @@
         <v>7.6778240000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>6.6972769999999997</v>
       </c>
@@ -10252,7 +10611,7 @@
         <v>8.1966800000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>6.9113239999999996</v>
       </c>
@@ -10282,7 +10641,7 @@
         <v>8.5946870000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>7.6649929999999999</v>
       </c>
@@ -10312,7 +10671,7 @@
         <v>8.7641760000000009</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>6.4552350000000001</v>
       </c>
@@ -10342,7 +10701,7 @@
         <v>8.8779229999999991</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>6.809437</v>
       </c>
@@ -10372,7 +10731,7 @@
         <v>8.9321909999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>6.9474299999999998</v>
       </c>
@@ -10402,7 +10761,7 @@
         <v>8.9667999999999992</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>7.172161</v>
       </c>
@@ -10432,7 +10791,7 @@
         <v>8.8266639999999992</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>9.068695</v>
       </c>
@@ -10462,7 +10821,7 @@
         <v>8.8630110000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>7.2953260000000002</v>
       </c>
@@ -10492,7 +10851,7 @@
         <v>8.9103110000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8.3531569999999995</v>
       </c>
@@ -10522,7 +10881,7 @@
         <v>8.8932120000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>8.4549789999999998</v>
       </c>
@@ -10552,7 +10911,7 @@
         <v>8.8606259999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>9.0593029999999999</v>
       </c>
@@ -10576,7 +10935,7 @@
         <v>8.8606259999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>10.30749</v>
       </c>
@@ -10594,7 +10953,7 @@
         <v>76.458349999999996</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>9.7371599999999994</v>
       </c>
@@ -10612,7 +10971,7 @@
         <v>87.326260000000005</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>9.8906100000000006</v>
       </c>
@@ -10630,7 +10989,7 @@
         <v>97.871089999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>8.6821059999999992</v>
       </c>
@@ -10648,7 +11007,7 @@
         <v>108.10169999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>9.0878219999999992</v>
       </c>
@@ -10666,7 +11025,7 @@
         <v>120.0874</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>8.7381740000000008</v>
       </c>
@@ -10684,7 +11043,7 @@
         <v>130.8604</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>9.5288389999999996</v>
       </c>
@@ -10702,7 +11061,7 @@
         <v>153.74469999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>12.395379999999999</v>
       </c>
@@ -10720,7 +11079,7 @@
         <v>50.011600000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>12.216570000000001</v>
       </c>
@@ -10738,7 +11097,7 @@
         <v>49.857439999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>10.179489999999999</v>
       </c>
@@ -10756,7 +11115,7 @@
         <v>47.821680000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>10.795949999999999</v>
       </c>
@@ -10774,7 +11133,7 @@
         <v>48.559049999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>11.343360000000001</v>
       </c>
@@ -10792,49 +11151,49 @@
         <v>49.255429999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/RedRunner_Jump.xlsx
+++ b/RedRunner_Jump.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1226,11 +1226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1319067456"/>
-        <c:axId val="-1319987248"/>
+        <c:axId val="-1963829920"/>
+        <c:axId val="-1967726176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1319067456"/>
+        <c:axId val="-1963829920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11.0"/>
@@ -1289,12 +1289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319987248"/>
+        <c:crossAx val="-1967726176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1319987248"/>
+        <c:axId val="-1967726176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1353,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319067456"/>
+        <c:crossAx val="-1963829920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1953,11 +1953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1319049216"/>
-        <c:axId val="-1319045456"/>
+        <c:axId val="-2005736096"/>
+        <c:axId val="-2005749024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1319049216"/>
+        <c:axId val="-2005736096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,12 +2082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319045456"/>
+        <c:crossAx val="-2005749024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1319045456"/>
+        <c:axId val="-2005749024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319049216"/>
+        <c:crossAx val="-2005736096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2385,7 +2385,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2427,10 +2427,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$52</c:f>
+              <c:f>Sheet3!$C$4:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>6.626124</c:v>
                 </c:pt>
@@ -2577,16 +2577,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5.866431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$4:$D$52</c:f>
+              <c:f>Sheet3!$D$4:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>10.56328</c:v>
                 </c:pt>
@@ -2733,6 +2736,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9.523739999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,11 +2758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1319012624"/>
-        <c:axId val="-1319008864"/>
+        <c:axId val="-2006480336"/>
+        <c:axId val="-2006476576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1319012624"/>
+        <c:axId val="-2006480336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,12 +2875,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319008864"/>
+        <c:crossAx val="-2006476576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1319008864"/>
+        <c:axId val="-2006476576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1319012624"/>
+        <c:crossAx val="-2006480336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3732,11 +3738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1306249200"/>
-        <c:axId val="-1272330160"/>
+        <c:axId val="-1967692624"/>
+        <c:axId val="-1967688864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1306249200"/>
+        <c:axId val="-1967692624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,12 +3855,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1272330160"/>
+        <c:crossAx val="-1967688864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1272330160"/>
+        <c:axId val="-1967688864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -3968,7 +3974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306249200"/>
+        <c:crossAx val="-1967692624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6272,7 +6278,7 @@
         <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B8C1F1-1AE2-4FE9-958E-F2906ECEBF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6313,7 +6319,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A88F3419-3875-4395-BC5B-F6ACCAA23344}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F3419-3875-4395-BC5B-F6ACCAA23344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6349,7 +6355,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E3DD4C-E43D-4825-85FD-258E556AF405}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E3DD4C-E43D-4825-85FD-258E556AF405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6385,7 +6391,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5445F70-A52F-4449-85F6-C64FD6536608}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5445F70-A52F-4449-85F6-C64FD6536608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9773,8 +9779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="131" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11152,9 +11158,11 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>0.1</v>
+      </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
